--- a/data/Paulino SalazarT3-2025.xlsx
+++ b/data/Paulino SalazarT3-2025.xlsx
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>11.72426025</v>
+        <v>0.4269558299999999</v>
       </c>
     </row>
   </sheetData>
